--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemsodotochuc(Web)_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemsodotochuc(Web)_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C580C8-A5E2-4F75-B4C3-DDBE482F20BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77885D-3D34-43F2-BBC0-4A3870CD585C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>Author</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t xml:space="preserve">hiển thị 1 hình ảnh sơ đồ tổ chức ở vị trí trung tâm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiện thị hình ảnh ỡ dạng danh sách </t>
   </si>
 </sst>
 </file>
@@ -1203,6 +1206,57 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1211,57 +1265,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1586,8 +1589,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1677,9 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>43906</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>55</v>
       </c>
@@ -1686,7 +1691,9 @@
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>43953</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>55</v>
       </c>
@@ -1798,8 +1805,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2030,11 +2037,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11:E13"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2052,17 +2059,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2101,32 +2108,32 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:10" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86">
+      <c r="A5" s="83">
         <v>2</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="98" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="43">
@@ -2139,16 +2146,16 @@
       <c r="I5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="95" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="82"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="43">
         <v>2</v>
       </c>
@@ -2159,14 +2166,14 @@
       <c r="I6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="99"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:10" s="42" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="83"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="43">
         <v>3</v>
       </c>
@@ -2177,22 +2184,22 @@
       <c r="I7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="100"/>
+      <c r="J7" s="97"/>
     </row>
     <row r="8" spans="1:10" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86">
+      <c r="A8" s="83">
         <v>3</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="98" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="43">
@@ -2205,16 +2212,16 @@
       <c r="I8" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="95" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="43">
         <v>2</v>
       </c>
@@ -2225,14 +2232,14 @@
       <c r="I9" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="99"/>
+      <c r="J9" s="96"/>
     </row>
     <row r="10" spans="1:10" s="42" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="83"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="43">
         <v>3</v>
       </c>
@@ -2243,22 +2250,22 @@
       <c r="I10" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="100"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:10" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86">
+      <c r="A11" s="83">
         <v>3</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="98" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="43">
@@ -2271,16 +2278,16 @@
       <c r="I11" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="95" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="82"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="43">
         <v>2</v>
       </c>
@@ -2291,14 +2298,14 @@
       <c r="I12" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="99"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:10" s="42" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="83"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="43">
         <v>3</v>
       </c>
@@ -2309,30 +2316,99 @@
       <c r="I13" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="100"/>
+      <c r="J13" s="97"/>
+    </row>
+    <row r="14" spans="1:10" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="83">
+        <v>3</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="90"/>
+      <c r="D14" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="43">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="43">
+        <v>2</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="96"/>
+    </row>
+    <row r="16" spans="1:10" s="42" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="43">
+        <v>3</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="25">
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
